--- a/Self Assessment - Sprint 7 - Runjini.xlsx
+++ b/Self Assessment - Sprint 7 - Runjini.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="24900" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="24900" windowHeight="14480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="411">
   <si>
     <t>Data Journalist</t>
   </si>
@@ -2025,9 +2025,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2038,6 +2035,24 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2059,6 +2074,21 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2068,23 +2098,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2121,42 +2157,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2449,16 +2449,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96:H102"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7" style="91" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="91" customWidth="1"/>
+    <col min="3" max="3" width="7" style="55" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="55" customWidth="1"/>
     <col min="8" max="8" width="65.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2469,24 +2469,24 @@
       <c r="B1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="G1" s="52" t="s">
+      <c r="D1" s="58"/>
+      <c r="G1" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="52"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="89">
+      <c r="C2" s="53">
         <v>43159</v>
       </c>
-      <c r="D2" s="89">
+      <c r="D2" s="53">
         <v>43173</v>
       </c>
       <c r="E2" s="30"/>
@@ -2502,8 +2502,10 @@
       <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="52">
+        <v>5</v>
+      </c>
+      <c r="D3" s="52"/>
       <c r="E3" s="30"/>
       <c r="G3" s="34">
         <v>1</v>
@@ -2517,8 +2519,10 @@
       <c r="B4" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
+      <c r="C4" s="52">
+        <v>5</v>
+      </c>
+      <c r="D4" s="52"/>
       <c r="G4" s="34">
         <v>2</v>
       </c>
@@ -2531,8 +2535,10 @@
       <c r="B5" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
+      <c r="C5" s="52">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52"/>
       <c r="G5" s="34">
         <v>3</v>
       </c>
@@ -2545,8 +2551,10 @@
       <c r="B6" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="C6" s="52">
+        <v>5</v>
+      </c>
+      <c r="D6" s="52"/>
       <c r="G6" s="34">
         <v>4</v>
       </c>
@@ -2559,8 +2567,10 @@
       <c r="B7" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
+      <c r="C7" s="52">
+        <v>4</v>
+      </c>
+      <c r="D7" s="52"/>
       <c r="G7" s="34">
         <v>5</v>
       </c>
@@ -2573,993 +2583,1405 @@
       <c r="B8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
+      <c r="C8" s="52">
+        <v>4</v>
+      </c>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="52">
+        <v>4</v>
+      </c>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
+      <c r="C10" s="52">
+        <v>2</v>
+      </c>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
+      <c r="C11" s="52">
+        <v>2</v>
+      </c>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
+      <c r="C12" s="52">
+        <v>5</v>
+      </c>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
+      <c r="C13" s="52">
+        <v>2</v>
+      </c>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
+      <c r="C14" s="52">
+        <v>2</v>
+      </c>
+      <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="52">
+        <v>4</v>
+      </c>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="G16" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" s="57"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="52">
+        <v>3</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="G17" s="34">
+        <v>0</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="52">
+        <v>3</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="52">
+        <v>5</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="G19" s="34">
+        <v>2</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="52">
+        <v>4</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="G20" s="34">
+        <v>3</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="52">
+        <v>4</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="G21" s="34">
+        <v>4</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="52">
+        <v>4</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="G22" s="34">
+        <v>5</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="52">
+        <v>4</v>
+      </c>
+      <c r="D23" s="52"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="52">
+        <v>4</v>
+      </c>
+      <c r="D24" s="52"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="52">
+        <v>3</v>
+      </c>
+      <c r="D25" s="52"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="52">
+        <v>2</v>
+      </c>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="52">
+        <v>2</v>
+      </c>
+      <c r="D27" s="52"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="52">
+        <v>4</v>
+      </c>
+      <c r="D28" s="52"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="52">
+        <v>3</v>
+      </c>
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="52">
+        <v>4</v>
+      </c>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="52">
+        <v>4</v>
+      </c>
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="B32" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="G32" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="52">
+        <v>2</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="G33" s="34">
+        <v>0</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="52">
+        <v>2</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="G34" s="34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="52">
+        <v>2</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="G35" s="34">
+        <v>2</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="52">
+        <v>0</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="G36" s="34">
+        <v>3</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="52">
+        <v>0</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="G37" s="34">
+        <v>4</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="32"/>
       <c r="B38" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="52">
+        <v>2</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="G38" s="34">
+        <v>5</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="52">
+        <v>2</v>
+      </c>
+      <c r="D39" s="52"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="52">
+        <v>4</v>
+      </c>
+      <c r="D40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
       <c r="B41" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="52">
+        <v>2</v>
+      </c>
+      <c r="D41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="52">
+        <v>2</v>
+      </c>
+      <c r="D42" s="52"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="52">
+        <v>1</v>
+      </c>
+      <c r="D43" s="52"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="G44" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="H44" s="57"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
       <c r="B45" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="52">
+        <v>4</v>
+      </c>
+      <c r="D45" s="52"/>
+      <c r="G45" s="34">
+        <v>0</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
       <c r="B46" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="52">
+        <v>4</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
       <c r="B47" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="52">
+        <v>4</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="G47" s="34">
+        <v>2</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="32"/>
       <c r="B48" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="52">
+        <v>3</v>
+      </c>
+      <c r="D48" s="52"/>
+      <c r="G48" s="34">
+        <v>3</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
       <c r="B49" t="s">
         <v>186</v>
       </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="52">
+        <v>3</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="G49" s="34">
+        <v>4</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
       <c r="B50" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="52">
+        <v>3</v>
+      </c>
+      <c r="D50" s="52"/>
+      <c r="G50" s="34">
+        <v>5</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="32"/>
       <c r="B51" t="s">
         <v>188</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="52">
+        <v>3</v>
+      </c>
+      <c r="D51" s="52"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="32"/>
       <c r="B52" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="52"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
       <c r="B53" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="52">
+        <v>4</v>
+      </c>
+      <c r="D53" s="52"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="32"/>
       <c r="B54" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="52">
+        <v>2</v>
+      </c>
+      <c r="D54" s="52"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
       <c r="B55" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="52">
+        <v>2</v>
+      </c>
+      <c r="D55" s="52"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="G56" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="H56" s="57"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
       <c r="B57" t="s">
         <v>193</v>
       </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="52">
+        <v>4</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="G57" s="34">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
       <c r="B58" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="52">
+        <v>3</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="32"/>
       <c r="B59" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="52">
+        <v>4</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="G59" s="34">
+        <v>2</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="32"/>
       <c r="B60" t="s">
         <v>196</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="52">
+        <v>4</v>
+      </c>
+      <c r="D60" s="52"/>
+      <c r="G60" s="34">
+        <v>3</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="32"/>
       <c r="B61" t="s">
         <v>197</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="52">
+        <v>1</v>
+      </c>
+      <c r="D61" s="52"/>
+      <c r="G61" s="34">
+        <v>4</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="32"/>
       <c r="B62" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="52">
+        <v>2</v>
+      </c>
+      <c r="D62" s="52"/>
+      <c r="G62" s="34">
+        <v>5</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="32"/>
       <c r="B63" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="52">
+        <v>3</v>
+      </c>
+      <c r="D63" s="52"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="32"/>
       <c r="B64" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
+      <c r="C64" s="52">
+        <v>3</v>
+      </c>
+      <c r="D64" s="52"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="32"/>
       <c r="B65" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
+      <c r="C65" s="52">
+        <v>3</v>
+      </c>
+      <c r="D65" s="52"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="32"/>
       <c r="B66" t="s">
         <v>202</v>
       </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
+      <c r="C66" s="52">
+        <v>2</v>
+      </c>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="32"/>
       <c r="B67" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
+      <c r="C67" s="52">
+        <v>2</v>
+      </c>
+      <c r="D67" s="52"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="32"/>
       <c r="B68" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
+      <c r="C68" s="52">
+        <v>2</v>
+      </c>
+      <c r="D68" s="52"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="32"/>
       <c r="B69" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
+      <c r="C69" s="52">
+        <v>3</v>
+      </c>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
       <c r="B70" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
+      <c r="C70" s="52">
+        <v>3</v>
+      </c>
+      <c r="D70" s="52"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="32"/>
       <c r="B71" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
+      <c r="C71" s="52">
+        <v>1</v>
+      </c>
+      <c r="D71" s="52"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="32"/>
       <c r="B72" t="s">
         <v>208</v>
       </c>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
+      <c r="C72" s="52">
+        <v>2</v>
+      </c>
+      <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="32"/>
       <c r="B73" t="s">
         <v>209</v>
       </c>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
+      <c r="C73" s="52">
+        <v>4</v>
+      </c>
+      <c r="D73" s="52"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="32"/>
       <c r="B74" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
+      <c r="C74" s="52">
+        <v>3</v>
+      </c>
+      <c r="D74" s="52"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="32"/>
       <c r="B75" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
+      <c r="C75" s="52">
+        <v>4</v>
+      </c>
+      <c r="D75" s="52"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="32"/>
       <c r="B76" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="88"/>
-      <c r="D76" s="88"/>
+      <c r="C76" s="52">
+        <v>4</v>
+      </c>
+      <c r="D76" s="52"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="B77" t="s">
         <v>213</v>
       </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
+      <c r="C77" s="52">
+        <v>2</v>
+      </c>
+      <c r="D77" s="52"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="32"/>
       <c r="B78" t="s">
         <v>214</v>
       </c>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
+      <c r="C78" s="52">
+        <v>2</v>
+      </c>
+      <c r="D78" s="52"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="32"/>
       <c r="B79" t="s">
         <v>215</v>
       </c>
-      <c r="C79" s="88"/>
-      <c r="D79" s="88"/>
+      <c r="C79" s="52">
+        <v>3</v>
+      </c>
+      <c r="D79" s="52"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="32"/>
       <c r="B80" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="52">
+        <v>2</v>
+      </c>
+      <c r="D80" s="52"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="G81" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="H81" s="57"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="32"/>
       <c r="B82" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="88"/>
-      <c r="D82" s="88"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C82" s="52">
+        <v>1</v>
+      </c>
+      <c r="D82" s="52"/>
+      <c r="G82" s="34">
+        <v>0</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="32"/>
       <c r="B83" t="s">
         <v>218</v>
       </c>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="52">
+        <v>1</v>
+      </c>
+      <c r="D83" s="52"/>
+      <c r="G83" s="34">
+        <v>1</v>
+      </c>
+      <c r="H83" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="32"/>
       <c r="B84" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C84" s="52">
+        <v>4</v>
+      </c>
+      <c r="D84" s="52"/>
+      <c r="G84" s="34">
+        <v>2</v>
+      </c>
+      <c r="H84" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="32"/>
       <c r="B85" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="52">
+        <v>4</v>
+      </c>
+      <c r="D85" s="52"/>
+      <c r="G85" s="34">
+        <v>3</v>
+      </c>
+      <c r="H85" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="32"/>
       <c r="B86" t="s">
         <v>221</v>
       </c>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="52">
+        <v>1</v>
+      </c>
+      <c r="D86" s="52"/>
+      <c r="G86" s="34">
+        <v>4</v>
+      </c>
+      <c r="H86" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="32"/>
       <c r="B87" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="52">
+        <v>1</v>
+      </c>
+      <c r="D87" s="52"/>
+      <c r="G87" s="34">
+        <v>5</v>
+      </c>
+      <c r="H87" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="32"/>
       <c r="B88" t="s">
         <v>223</v>
       </c>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C88" s="52">
+        <v>1</v>
+      </c>
+      <c r="D88" s="52"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="32"/>
       <c r="B89" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="88"/>
-      <c r="D89" s="88"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C89" s="52">
+        <v>3</v>
+      </c>
+      <c r="D89" s="52"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="32"/>
       <c r="B90" t="s">
         <v>225</v>
       </c>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C90" s="52">
+        <v>0</v>
+      </c>
+      <c r="D90" s="52"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="32"/>
       <c r="B91" t="s">
         <v>226</v>
       </c>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C91" s="52">
+        <v>0</v>
+      </c>
+      <c r="D91" s="52"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="32"/>
       <c r="B92" t="s">
         <v>227</v>
       </c>
-      <c r="C92" s="88"/>
-      <c r="D92" s="88"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C92" s="52">
+        <v>0</v>
+      </c>
+      <c r="D92" s="52"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="32"/>
       <c r="B93" t="s">
         <v>228</v>
       </c>
-      <c r="C93" s="88"/>
-      <c r="D93" s="88"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="52">
+        <v>0</v>
+      </c>
+      <c r="D93" s="52"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="32"/>
       <c r="B94" t="s">
         <v>229</v>
       </c>
-      <c r="C94" s="88"/>
-      <c r="D94" s="88"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C94" s="52">
+        <v>0</v>
+      </c>
+      <c r="D94" s="52"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
       <c r="B95" t="s">
         <v>230</v>
       </c>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C95" s="52">
+        <v>0</v>
+      </c>
+      <c r="D95" s="52"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="C96" s="90"/>
-      <c r="D96" s="90"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="G96" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="H96" s="57"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="32"/>
       <c r="B97" t="s">
         <v>231</v>
       </c>
-      <c r="C97" s="88">
-        <v>3</v>
-      </c>
-      <c r="D97" s="88"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="52">
+        <v>3</v>
+      </c>
+      <c r="D97" s="52"/>
+      <c r="G97" s="34">
+        <v>0</v>
+      </c>
+      <c r="H97" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="32"/>
       <c r="B98" t="s">
         <v>232</v>
       </c>
-      <c r="C98" s="88">
-        <v>1</v>
-      </c>
-      <c r="D98" s="88"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C98" s="52">
+        <v>1</v>
+      </c>
+      <c r="D98" s="52"/>
+      <c r="G98" s="34">
+        <v>1</v>
+      </c>
+      <c r="H98" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="32"/>
       <c r="B99" t="s">
         <v>233</v>
       </c>
-      <c r="C99" s="88">
-        <v>1</v>
-      </c>
-      <c r="D99" s="88"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C99" s="52">
+        <v>1</v>
+      </c>
+      <c r="D99" s="52"/>
+      <c r="G99" s="34">
+        <v>2</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="32"/>
       <c r="B100" t="s">
         <v>234</v>
       </c>
-      <c r="C100" s="88">
-        <v>1</v>
-      </c>
-      <c r="D100" s="88"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C100" s="52">
+        <v>1</v>
+      </c>
+      <c r="D100" s="52"/>
+      <c r="G100" s="34">
+        <v>3</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="32"/>
       <c r="B101" t="s">
         <v>235</v>
       </c>
-      <c r="C101" s="88">
+      <c r="C101" s="52">
         <v>4</v>
       </c>
-      <c r="D101" s="88"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="52"/>
+      <c r="G101" s="34">
+        <v>4</v>
+      </c>
+      <c r="H101" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="32"/>
       <c r="B102" t="s">
         <v>236</v>
       </c>
-      <c r="C102" s="88">
-        <v>3</v>
-      </c>
-      <c r="D102" s="88"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C102" s="52">
+        <v>3</v>
+      </c>
+      <c r="D102" s="52"/>
+      <c r="G102" s="34">
+        <v>5</v>
+      </c>
+      <c r="H102" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="32"/>
       <c r="B103" t="s">
         <v>237</v>
       </c>
-      <c r="C103" s="88">
+      <c r="C103" s="52">
         <v>4</v>
       </c>
-      <c r="D103" s="88"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="52"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="32"/>
       <c r="B104" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="88">
+      <c r="C104" s="52">
         <v>4</v>
       </c>
-      <c r="D104" s="88"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="52"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="32"/>
       <c r="B105" t="s">
         <v>239</v>
       </c>
-      <c r="C105" s="88">
-        <v>3</v>
-      </c>
-      <c r="D105" s="88"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="52">
+        <v>3</v>
+      </c>
+      <c r="D105" s="52"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="32"/>
       <c r="B106" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="88">
+      <c r="C106" s="52">
         <v>4</v>
       </c>
-      <c r="D106" s="88"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="52"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="32"/>
       <c r="B107" t="s">
         <v>241</v>
       </c>
-      <c r="C107" s="88">
+      <c r="C107" s="52">
         <v>4</v>
       </c>
-      <c r="D107" s="88"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D107" s="52"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="32"/>
       <c r="B108" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="88">
+      <c r="C108" s="52">
         <v>4</v>
       </c>
-      <c r="D108" s="88"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D108" s="52"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="32"/>
       <c r="B109" t="s">
         <v>243</v>
       </c>
-      <c r="C109" s="88">
-        <v>3</v>
-      </c>
-      <c r="D109" s="88"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C109" s="52">
+        <v>3</v>
+      </c>
+      <c r="D109" s="52"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="32"/>
       <c r="B110" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="88">
-        <v>2</v>
-      </c>
-      <c r="D110" s="88"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C110" s="52">
+        <v>2</v>
+      </c>
+      <c r="D110" s="52"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="32"/>
       <c r="B111" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="88">
-        <v>2</v>
-      </c>
-      <c r="D111" s="88"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C111" s="52">
+        <v>2</v>
+      </c>
+      <c r="D111" s="52"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="32"/>
       <c r="B112" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="88">
-        <v>1</v>
-      </c>
-      <c r="D112" s="88"/>
+      <c r="C112" s="52">
+        <v>1</v>
+      </c>
+      <c r="D112" s="52"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="32"/>
       <c r="B113" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="88">
-        <v>3</v>
-      </c>
-      <c r="D113" s="88"/>
+      <c r="C113" s="52">
+        <v>3</v>
+      </c>
+      <c r="D113" s="52"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="32"/>
       <c r="B114" t="s">
         <v>248</v>
       </c>
-      <c r="C114" s="88">
-        <v>1</v>
-      </c>
-      <c r="D114" s="88"/>
+      <c r="C114" s="52">
+        <v>1</v>
+      </c>
+      <c r="D114" s="52"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="32"/>
       <c r="B115" t="s">
         <v>249</v>
       </c>
-      <c r="C115" s="88">
-        <v>3</v>
-      </c>
-      <c r="D115" s="88"/>
+      <c r="C115" s="52">
+        <v>3</v>
+      </c>
+      <c r="D115" s="52"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="32"/>
       <c r="B116" t="s">
         <v>250</v>
       </c>
-      <c r="C116" s="88">
+      <c r="C116" s="52">
         <v>0</v>
       </c>
-      <c r="D116" s="88"/>
+      <c r="D116" s="52"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="32"/>
       <c r="B117" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="88">
+      <c r="C117" s="52">
         <v>5</v>
       </c>
-      <c r="D117" s="88"/>
+      <c r="D117" s="52"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="32"/>
       <c r="B118" t="s">
         <v>252</v>
       </c>
-      <c r="C118" s="88">
+      <c r="C118" s="52">
         <v>0</v>
       </c>
-      <c r="D118" s="88"/>
+      <c r="D118" s="52"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="32"/>
       <c r="B119" t="s">
         <v>253</v>
       </c>
-      <c r="C119" s="88">
-        <v>3</v>
-      </c>
-      <c r="D119" s="88"/>
+      <c r="C119" s="52">
+        <v>3</v>
+      </c>
+      <c r="D119" s="52"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="32"/>
       <c r="B120" t="s">
         <v>254</v>
       </c>
-      <c r="C120" s="88">
-        <v>3</v>
-      </c>
-      <c r="D120" s="88"/>
+      <c r="C120" s="52">
+        <v>3</v>
+      </c>
+      <c r="D120" s="52"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="32"/>
       <c r="B121" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="88">
-        <v>1</v>
-      </c>
-      <c r="D121" s="88"/>
+      <c r="C121" s="52">
+        <v>1</v>
+      </c>
+      <c r="D121" s="52"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="32"/>
       <c r="B122" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="88">
-        <v>1</v>
-      </c>
-      <c r="D122" s="88"/>
+      <c r="C122" s="52">
+        <v>1</v>
+      </c>
+      <c r="D122" s="52"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="32"/>
       <c r="B123" t="s">
         <v>257</v>
       </c>
-      <c r="C123" s="88">
-        <v>1</v>
-      </c>
-      <c r="D123" s="88"/>
+      <c r="C123" s="52">
+        <v>1</v>
+      </c>
+      <c r="D123" s="52"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="37"/>
       <c r="B124" s="37"/>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G96:H96"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G44:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3569,15 +3991,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3597,9 +4019,9 @@
       <c r="A2" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
     </row>
@@ -3607,37 +4029,61 @@
       <c r="A3" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="52">
+        <v>3</v>
+      </c>
+      <c r="C3" s="52">
+        <v>1</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="52">
+        <v>4</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="54" t="s">
+      <c r="B5" s="52">
+        <v>4</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="52">
+        <v>4</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52">
+        <v>3</v>
+      </c>
       <c r="E6" s="41">
         <v>0</v>
       </c>
@@ -3649,9 +4095,15 @@
       <c r="A7" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="52">
+        <v>3</v>
+      </c>
+      <c r="C7" s="52">
+        <v>1</v>
+      </c>
+      <c r="D7" s="52">
+        <v>1</v>
+      </c>
       <c r="E7" s="41">
         <v>1</v>
       </c>
@@ -3663,9 +4115,9 @@
       <c r="A8" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="43">
         <v>2</v>
       </c>
@@ -3677,9 +4129,15 @@
       <c r="A9" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="52">
+        <v>3</v>
+      </c>
+      <c r="C9" s="52">
+        <v>0</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0</v>
+      </c>
       <c r="E9" s="41">
         <v>3</v>
       </c>
@@ -3691,29 +4149,47 @@
       <c r="A10" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="52">
+        <v>1</v>
+      </c>
+      <c r="C10" s="52">
+        <v>1</v>
+      </c>
+      <c r="D10" s="52">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="56" t="s">
+      <c r="B11" s="52">
+        <v>1</v>
+      </c>
+      <c r="C11" s="52">
+        <v>1</v>
+      </c>
+      <c r="D11" s="52">
+        <v>2</v>
+      </c>
+      <c r="E11" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="F11" s="57"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="52">
+        <v>1</v>
+      </c>
+      <c r="C12" s="52">
+        <v>2</v>
+      </c>
+      <c r="D12" s="52">
+        <v>3</v>
+      </c>
       <c r="E12" s="42">
         <v>0</v>
       </c>
@@ -3725,9 +4201,9 @@
       <c r="A13" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="42">
         <v>1</v>
       </c>
@@ -3739,9 +4215,15 @@
       <c r="A14" t="s">
         <v>274</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="52">
+        <v>4</v>
+      </c>
+      <c r="C14" s="52">
+        <v>3</v>
+      </c>
+      <c r="D14" s="52">
+        <v>4</v>
+      </c>
       <c r="E14" s="42">
         <v>2</v>
       </c>
@@ -3753,9 +4235,15 @@
       <c r="A15" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="52">
+        <v>1</v>
+      </c>
+      <c r="C15" s="52">
+        <v>1</v>
+      </c>
+      <c r="D15" s="52">
+        <v>1</v>
+      </c>
       <c r="E15" s="42">
         <v>3</v>
       </c>
@@ -3767,9 +4255,15 @@
       <c r="A16" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="52">
+        <v>2</v>
+      </c>
+      <c r="C16" s="52">
+        <v>1</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1</v>
+      </c>
       <c r="E16" s="42">
         <v>4</v>
       </c>
@@ -3781,29 +4275,41 @@
       <c r="A17" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="52">
+        <v>3</v>
+      </c>
+      <c r="C17" s="52">
+        <v>3</v>
+      </c>
+      <c r="D17" s="52">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>278</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="58" t="s">
+      <c r="B18" s="52">
+        <v>3</v>
+      </c>
+      <c r="C18" s="52">
+        <v>1</v>
+      </c>
+      <c r="D18" s="52">
+        <v>1</v>
+      </c>
+      <c r="E18" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="45">
         <v>0</v>
       </c>
@@ -3815,9 +4321,15 @@
       <c r="A20" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="52">
+        <v>0</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0</v>
+      </c>
       <c r="E20" s="45">
         <v>1</v>
       </c>
@@ -3829,9 +4341,15 @@
       <c r="A21" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="52">
+        <v>1</v>
+      </c>
+      <c r="C21" s="52">
+        <v>0</v>
+      </c>
+      <c r="D21" s="52">
+        <v>0</v>
+      </c>
       <c r="E21" s="45">
         <v>2</v>
       </c>
@@ -3843,9 +4361,15 @@
       <c r="A22" t="s">
         <v>281</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="52">
+        <v>2</v>
+      </c>
+      <c r="C22" s="52">
+        <v>1</v>
+      </c>
+      <c r="D22" s="52">
+        <v>2</v>
+      </c>
       <c r="E22" s="45">
         <v>3</v>
       </c>
@@ -3857,9 +4381,9 @@
       <c r="A23" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="45">
         <v>4</v>
       </c>
@@ -3871,9 +4395,15 @@
       <c r="A24" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="52">
+        <v>1</v>
+      </c>
+      <c r="C24" s="52">
+        <v>0</v>
+      </c>
+      <c r="D24" s="52">
+        <v>0</v>
+      </c>
       <c r="E24" s="45">
         <v>5</v>
       </c>
@@ -3885,235 +4415,433 @@
       <c r="A25" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="52">
+        <v>3</v>
+      </c>
+      <c r="C25" s="52">
+        <v>2</v>
+      </c>
+      <c r="D25" s="52">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="52">
+        <v>2</v>
+      </c>
+      <c r="C26" s="52">
+        <v>1</v>
+      </c>
+      <c r="D26" s="52">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="52">
+        <v>4</v>
+      </c>
+      <c r="C27" s="52">
+        <v>2</v>
+      </c>
+      <c r="D27" s="52">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>286</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="52">
+        <v>4</v>
+      </c>
+      <c r="C28" s="52">
+        <v>1</v>
+      </c>
+      <c r="D28" s="52">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>287</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="52">
+        <v>2</v>
+      </c>
+      <c r="C29" s="52">
+        <v>1</v>
+      </c>
+      <c r="D29" s="52">
+        <v>1</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="41">
+        <v>0</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>288</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="B31" s="52">
+        <v>2</v>
+      </c>
+      <c r="C31" s="52">
+        <v>2</v>
+      </c>
+      <c r="D31" s="52">
+        <v>4</v>
+      </c>
+      <c r="E31" s="41">
+        <v>1</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>289</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="52">
+        <v>0</v>
+      </c>
+      <c r="C32" s="52">
+        <v>0</v>
+      </c>
+      <c r="D32" s="52">
+        <v>0</v>
+      </c>
+      <c r="E32" s="43">
+        <v>2</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="52">
+        <v>3</v>
+      </c>
+      <c r="C33" s="52">
+        <v>0</v>
+      </c>
+      <c r="D33" s="52">
+        <v>1</v>
+      </c>
+      <c r="E33" s="41">
+        <v>3</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>291</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="52">
+        <v>3</v>
+      </c>
+      <c r="C34" s="52">
+        <v>3</v>
+      </c>
+      <c r="D34" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="F35" s="62"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>292</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="52">
+        <v>1</v>
+      </c>
+      <c r="C36" s="52">
+        <v>1</v>
+      </c>
+      <c r="D36" s="52">
+        <v>2</v>
+      </c>
+      <c r="E36" s="42">
+        <v>0</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>293</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="52">
+        <v>1</v>
+      </c>
+      <c r="C37" s="52">
+        <v>1</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0</v>
+      </c>
+      <c r="E37" s="42">
+        <v>1</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="52">
+        <v>1</v>
+      </c>
+      <c r="C38" s="52">
+        <v>1</v>
+      </c>
+      <c r="D38" s="52">
+        <v>2</v>
+      </c>
+      <c r="E38" s="42">
+        <v>2</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>295</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="52">
+        <v>1</v>
+      </c>
+      <c r="C39" s="52">
+        <v>1</v>
+      </c>
+      <c r="D39" s="52">
+        <v>3</v>
+      </c>
+      <c r="E39" s="42">
+        <v>3</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>296</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="52">
+        <v>1</v>
+      </c>
+      <c r="C40" s="52">
+        <v>1</v>
+      </c>
+      <c r="D40" s="52">
+        <v>3</v>
+      </c>
+      <c r="E40" s="42">
+        <v>4</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="52">
+        <v>1</v>
+      </c>
+      <c r="C41" s="52">
+        <v>2</v>
+      </c>
+      <c r="D41" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>298</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="52">
+        <v>1</v>
+      </c>
+      <c r="C42" s="52">
+        <v>0</v>
+      </c>
+      <c r="D42" s="52">
+        <v>0</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="F42" s="64"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>299</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="52">
+        <v>1</v>
+      </c>
+      <c r="C43" s="52">
+        <v>1</v>
+      </c>
+      <c r="D43" s="52">
+        <v>1</v>
+      </c>
+      <c r="E43" s="45">
+        <v>0</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="45">
+        <v>1</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>300</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="52">
         <v>0</v>
       </c>
-      <c r="C45" s="88">
-        <v>2</v>
-      </c>
-      <c r="D45" s="88">
+      <c r="C45" s="52">
+        <v>2</v>
+      </c>
+      <c r="D45" s="52">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B46" s="88">
+      <c r="B46" s="52">
         <v>0</v>
       </c>
-      <c r="C46" s="88">
+      <c r="C46" s="52">
         <v>0</v>
       </c>
-      <c r="D46" s="88">
+      <c r="D46" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="45">
+        <v>3</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="B47" s="88">
-        <v>1</v>
-      </c>
-      <c r="C47" s="88">
-        <v>1</v>
-      </c>
-      <c r="D47" s="88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="52">
+        <v>1</v>
+      </c>
+      <c r="C47" s="52">
+        <v>1</v>
+      </c>
+      <c r="D47" s="52">
+        <v>2</v>
+      </c>
+      <c r="E47" s="45">
+        <v>4</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>303</v>
       </c>
-      <c r="B48" s="88">
-        <v>3</v>
-      </c>
-      <c r="C48" s="88">
-        <v>3</v>
-      </c>
-      <c r="D48" s="88">
+      <c r="B48" s="52">
+        <v>3</v>
+      </c>
+      <c r="C48" s="52">
+        <v>3</v>
+      </c>
+      <c r="D48" s="52">
         <v>4</v>
+      </c>
+      <c r="E48" s="45">
+        <v>5</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>304</v>
       </c>
-      <c r="B49" s="88">
+      <c r="B49" s="52">
         <v>0</v>
       </c>
-      <c r="C49" s="88">
-        <v>1</v>
-      </c>
-      <c r="D49" s="88">
+      <c r="C49" s="52">
+        <v>1</v>
+      </c>
+      <c r="D49" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4121,13 +4849,13 @@
       <c r="A50" t="s">
         <v>305</v>
       </c>
-      <c r="B50" s="88">
-        <v>1</v>
-      </c>
-      <c r="C50" s="88">
-        <v>2</v>
-      </c>
-      <c r="D50" s="88">
+      <c r="B50" s="52">
+        <v>1</v>
+      </c>
+      <c r="C50" s="52">
+        <v>2</v>
+      </c>
+      <c r="D50" s="52">
         <v>3</v>
       </c>
     </row>
@@ -4135,13 +4863,13 @@
       <c r="A51" t="s">
         <v>306</v>
       </c>
-      <c r="B51" s="88">
+      <c r="B51" s="52">
         <v>0</v>
       </c>
-      <c r="C51" s="88">
-        <v>1</v>
-      </c>
-      <c r="D51" s="88">
+      <c r="C51" s="52">
+        <v>1</v>
+      </c>
+      <c r="D51" s="52">
         <v>3</v>
       </c>
     </row>
@@ -4149,13 +4877,13 @@
       <c r="A52" t="s">
         <v>307</v>
       </c>
-      <c r="B52" s="88">
+      <c r="B52" s="52">
         <v>0</v>
       </c>
-      <c r="C52" s="88">
-        <v>1</v>
-      </c>
-      <c r="D52" s="88">
+      <c r="C52" s="52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="52">
         <v>3</v>
       </c>
     </row>
@@ -4163,13 +4891,13 @@
       <c r="A53" t="s">
         <v>308</v>
       </c>
-      <c r="B53" s="88">
-        <v>1</v>
-      </c>
-      <c r="C53" s="88">
+      <c r="B53" s="52">
+        <v>1</v>
+      </c>
+      <c r="C53" s="52">
         <v>0</v>
       </c>
-      <c r="D53" s="88">
+      <c r="D53" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4177,13 +4905,13 @@
       <c r="A54" t="s">
         <v>309</v>
       </c>
-      <c r="B54" s="88">
-        <v>1</v>
-      </c>
-      <c r="C54" s="88">
-        <v>1</v>
-      </c>
-      <c r="D54" s="88">
+      <c r="B54" s="52">
+        <v>1</v>
+      </c>
+      <c r="C54" s="52">
+        <v>1</v>
+      </c>
+      <c r="D54" s="52">
         <v>1</v>
       </c>
     </row>
@@ -4191,13 +4919,13 @@
       <c r="A55" t="s">
         <v>310</v>
       </c>
-      <c r="B55" s="88">
-        <v>2</v>
-      </c>
-      <c r="C55" s="88">
+      <c r="B55" s="52">
+        <v>2</v>
+      </c>
+      <c r="C55" s="52">
         <v>0</v>
       </c>
-      <c r="D55" s="88">
+      <c r="D55" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4205,13 +4933,13 @@
       <c r="A56" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="88">
-        <v>2</v>
-      </c>
-      <c r="C56" s="88">
+      <c r="B56" s="52">
+        <v>2</v>
+      </c>
+      <c r="C56" s="52">
         <v>0</v>
       </c>
-      <c r="D56" s="88">
+      <c r="D56" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4219,13 +4947,13 @@
       <c r="A57" t="s">
         <v>312</v>
       </c>
-      <c r="B57" s="88">
+      <c r="B57" s="52">
         <v>0</v>
       </c>
-      <c r="C57" s="88">
+      <c r="C57" s="52">
         <v>0</v>
       </c>
-      <c r="D57" s="88">
+      <c r="D57" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4233,24 +4961,27 @@
       <c r="A58" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="88">
+      <c r="B58" s="52">
         <v>0</v>
       </c>
-      <c r="C58" s="88">
-        <v>1</v>
-      </c>
-      <c r="D58" s="88">
+      <c r="C58" s="52">
+        <v>1</v>
+      </c>
+      <c r="D58" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E18:F18"/>
@@ -4263,33 +4994,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="91"/>
+    <col min="2" max="2" width="10.83203125" style="55"/>
     <col min="3" max="3" width="2.83203125" customWidth="1"/>
     <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="49"/>
       <c r="D2" s="34">
         <v>0</v>
       </c>
@@ -4301,7 +5032,9 @@
       <c r="A3" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="88"/>
+      <c r="B3" s="52">
+        <v>1</v>
+      </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
@@ -4313,7 +5046,9 @@
       <c r="A4" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="52">
+        <v>3</v>
+      </c>
       <c r="D4" s="34">
         <v>2</v>
       </c>
@@ -4325,7 +5060,9 @@
       <c r="A5" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="52">
+        <v>1</v>
+      </c>
       <c r="D5" s="34">
         <v>3</v>
       </c>
@@ -4337,7 +5074,9 @@
       <c r="A6" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="52">
+        <v>2</v>
+      </c>
       <c r="D6" s="34">
         <v>4</v>
       </c>
@@ -4349,262 +5088,368 @@
       <c r="A7" t="s">
         <v>318</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="52">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="52">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="52">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="88"/>
+      <c r="B10" s="52">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="52">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="88"/>
+      <c r="B12" s="52">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="52">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>403</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>325</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="52">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>326</v>
       </c>
-      <c r="B16" s="88"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>327</v>
       </c>
-      <c r="B17" s="88"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>408</v>
       </c>
-      <c r="B18" s="50"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="88"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>329</v>
       </c>
-      <c r="B20" s="88"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>330</v>
       </c>
-      <c r="B21" s="88"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>331</v>
       </c>
-      <c r="B22" s="88"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="88"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>332</v>
       </c>
-      <c r="B24" s="88"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>329</v>
       </c>
-      <c r="B25" s="88"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="88"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>331</v>
       </c>
-      <c r="B27" s="88"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="B28" s="50"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="49"/>
+      <c r="D28" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="57"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>333</v>
       </c>
-      <c r="B29" s="48"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="52">
+        <v>3</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>334</v>
       </c>
-      <c r="B30" s="88"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="52">
+        <v>3</v>
+      </c>
+      <c r="D30" s="34">
+        <v>1</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>335</v>
       </c>
-      <c r="B31" s="88"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="52">
+        <v>2</v>
+      </c>
+      <c r="D31" s="34">
+        <v>2</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>336</v>
       </c>
-      <c r="B32" s="88"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="52">
+        <v>1</v>
+      </c>
+      <c r="D32" s="34">
+        <v>3</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>337</v>
       </c>
-      <c r="B33" s="88"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="52">
+        <v>1</v>
+      </c>
+      <c r="D33" s="34">
+        <v>4</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>338</v>
       </c>
-      <c r="B34" s="88"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="88"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="B36" s="50"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="88"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>341</v>
       </c>
-      <c r="B38" s="88"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>342</v>
       </c>
-      <c r="B39" s="88"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>343</v>
       </c>
-      <c r="B40" s="88"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>344</v>
       </c>
-      <c r="B41" s="88"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>345</v>
       </c>
-      <c r="B42" s="88"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
         <v>405</v>
       </c>
-      <c r="B43" s="50"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="49"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>346</v>
       </c>
-      <c r="B44" s="48"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>347</v>
       </c>
-      <c r="B45" s="88"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>348</v>
       </c>
-      <c r="B46" s="88"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>349</v>
       </c>
-      <c r="B47" s="88"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>350</v>
       </c>
-      <c r="B48" s="88"/>
+      <c r="B48" s="52">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="B49" s="50"/>
+      <c r="B49" s="49"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>351</v>
       </c>
-      <c r="B50" s="88">
+      <c r="B50" s="52">
         <v>2</v>
       </c>
     </row>
@@ -4612,7 +5457,7 @@
       <c r="A51" t="s">
         <v>352</v>
       </c>
-      <c r="B51" s="88">
+      <c r="B51" s="52">
         <v>2</v>
       </c>
     </row>
@@ -4620,7 +5465,7 @@
       <c r="A52" t="s">
         <v>353</v>
       </c>
-      <c r="B52" s="88">
+      <c r="B52" s="52">
         <v>1</v>
       </c>
     </row>
@@ -4628,7 +5473,7 @@
       <c r="A53" t="s">
         <v>354</v>
       </c>
-      <c r="B53" s="88">
+      <c r="B53" s="52">
         <v>1</v>
       </c>
     </row>
@@ -4636,7 +5481,7 @@
       <c r="A54" t="s">
         <v>355</v>
       </c>
-      <c r="B54" s="88">
+      <c r="B54" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4644,7 +5489,7 @@
       <c r="A55" t="s">
         <v>356</v>
       </c>
-      <c r="B55" s="88">
+      <c r="B55" s="52">
         <v>1</v>
       </c>
     </row>
@@ -4652,7 +5497,7 @@
       <c r="A56" t="s">
         <v>357</v>
       </c>
-      <c r="B56" s="88">
+      <c r="B56" s="52">
         <v>2</v>
       </c>
     </row>
@@ -4660,7 +5505,7 @@
       <c r="A57" t="s">
         <v>358</v>
       </c>
-      <c r="B57" s="88">
+      <c r="B57" s="52">
         <v>1</v>
       </c>
     </row>
@@ -4668,17 +5513,18 @@
       <c r="A58" t="s">
         <v>359</v>
       </c>
-      <c r="B58" s="88">
+      <c r="B58" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="49"/>
-      <c r="B59" s="92"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4706,64 +5552,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
     </row>
     <row r="5" spans="1:6" ht="103" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
@@ -4778,29 +5624,29 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="24" t="s">
         <v>49</v>
       </c>
@@ -4818,7 +5664,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
@@ -4836,29 +5682,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
@@ -4876,7 +5722,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
@@ -4894,29 +5740,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="66" t="s">
+      <c r="A16" s="73"/>
+      <c r="B16" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="24" t="s">
         <v>53</v>
       </c>
@@ -4934,7 +5780,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="15" t="s">
         <v>54</v>
       </c>
@@ -4952,29 +5798,29 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="66" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="24" t="s">
         <v>55</v>
       </c>
@@ -4992,7 +5838,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="15" t="s">
         <v>56</v>
       </c>
@@ -5010,29 +5856,29 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="25" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="24" t="s">
         <v>57</v>
       </c>
@@ -5050,7 +5896,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="15" t="s">
         <v>58</v>
       </c>
@@ -5068,29 +5914,29 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="73"/>
+      <c r="B28" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
     </row>
     <row r="29" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="24" t="s">
         <v>59</v>
       </c>
@@ -5108,7 +5954,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="15" t="s">
         <v>60</v>
       </c>
@@ -5126,29 +5972,29 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
     </row>
     <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="24" t="s">
         <v>74</v>
       </c>
@@ -5166,7 +6012,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="15" t="s">
         <v>78</v>
       </c>
@@ -5184,29 +6030,29 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
-      <c r="B36" s="66" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="69"/>
     </row>
     <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="64"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="24" t="s">
         <v>61</v>
       </c>
@@ -5224,7 +6070,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="15" t="s">
         <v>62</v>
       </c>
@@ -5242,29 +6088,29 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
     </row>
     <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="73"/>
+      <c r="B40" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="69"/>
     </row>
     <row r="41" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="24" t="s">
         <v>63</v>
       </c>
@@ -5282,7 +6128,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="15" t="s">
         <v>95</v>
       </c>
@@ -5300,29 +6146,29 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
-      <c r="B44" s="66" t="s">
+      <c r="A44" s="73"/>
+      <c r="B44" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
     </row>
     <row r="45" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="24" t="s">
         <v>64</v>
       </c>
@@ -5340,7 +6186,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="15" t="s">
         <v>65</v>
       </c>
@@ -5358,8 +6204,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="87"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
@@ -5393,16 +6239,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B12:F12"/>
@@ -5417,19 +6266,16 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Self Assessment - Sprint 7 - Runjini.xlsx
+++ b/Self Assessment - Sprint 7 - Runjini.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="24900" windowHeight="14480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="24900" windowHeight="14480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="412">
   <si>
     <t>Data Journalist</t>
   </si>
@@ -1263,6 +1263,9 @@
   </si>
   <si>
     <t xml:space="preserve">Key </t>
+  </si>
+  <si>
+    <t>As a retail marketing analyst I need to design a data model that capture retail marketing channels and performance so that our team can construct more detailed KPIs and measure the effectiveness of our marketing campaigns.</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1923,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2074,90 +2077,91 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4994,7 +4998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -5535,10 +5539,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5552,64 +5556,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:6" ht="103" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
@@ -5624,29 +5628,29 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
     </row>
     <row r="9" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="24" t="s">
         <v>49</v>
       </c>
@@ -5664,7 +5668,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
@@ -5682,29 +5686,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
@@ -5722,7 +5726,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
@@ -5740,29 +5744,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-    </row>
-    <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+    </row>
+    <row r="17" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="69"/>
       <c r="B17" s="24" t="s">
         <v>53</v>
       </c>
@@ -5779,8 +5783,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+    <row r="18" spans="1:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
       <c r="B18" s="15" t="s">
         <v>54</v>
       </c>
@@ -5797,30 +5801,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="67" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="69"/>
+      <c r="B20" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-    </row>
-    <row r="21" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
+    </row>
+    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
         <v>55</v>
       </c>
@@ -5836,9 +5840,12 @@
       <c r="F21" s="28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="H21" s="93" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
       <c r="B22" s="15" t="s">
         <v>56</v>
       </c>
@@ -5855,30 +5862,30 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
+    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-    </row>
-    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="67" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="69"/>
+      <c r="B24" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-    </row>
-    <row r="25" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
+    </row>
+    <row r="25" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="69"/>
       <c r="B25" s="24" t="s">
         <v>57</v>
       </c>
@@ -5895,8 +5902,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
+    <row r="26" spans="1:8" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
       <c r="B26" s="15" t="s">
         <v>58</v>
       </c>
@@ -5913,30 +5920,30 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="73" t="s">
+    <row r="27" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="67" t="s">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="69"/>
+      <c r="B28" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-    </row>
-    <row r="29" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+    </row>
+    <row r="29" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A29" s="69"/>
       <c r="B29" s="24" t="s">
         <v>59</v>
       </c>
@@ -5953,8 +5960,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+    <row r="30" spans="1:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
       <c r="B30" s="15" t="s">
         <v>60</v>
       </c>
@@ -5971,30 +5978,30 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="75" t="s">
+    <row r="31" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-    </row>
-    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="67" t="s">
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+    </row>
+    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="69"/>
+      <c r="B32" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="24" t="s">
         <v>74</v>
       </c>
@@ -6012,7 +6019,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="15" t="s">
         <v>78</v>
       </c>
@@ -6030,29 +6037,29 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="67" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="69"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="73"/>
     </row>
     <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="24" t="s">
         <v>61</v>
       </c>
@@ -6070,7 +6077,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="15" t="s">
         <v>62</v>
       </c>
@@ -6088,29 +6095,29 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
     </row>
     <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="67" t="s">
+      <c r="A40" s="69"/>
+      <c r="B40" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
     </row>
     <row r="41" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="24" t="s">
         <v>63</v>
       </c>
@@ -6128,7 +6135,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="15" t="s">
         <v>95</v>
       </c>
@@ -6146,29 +6153,29 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="67"/>
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="67" t="s">
+      <c r="A44" s="69"/>
+      <c r="B44" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="73"/>
     </row>
     <row r="45" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="24" t="s">
         <v>64</v>
       </c>
@@ -6186,7 +6193,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="15" t="s">
         <v>65</v>
       </c>
@@ -6204,8 +6211,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="92"/>
       <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
@@ -6239,19 +6246,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B12:F12"/>
@@ -6266,16 +6270,19 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
